--- a/SymWebNew/Files/Export/PF of-Aug-25.xlsx
+++ b/SymWebNew/Files/Export/PF of-Aug-25.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="570" windowWidth="27495" windowHeight="11700"/>
+    <workbookView xWindow="270" yWindow="525" windowWidth="20775" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Contribution" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
   <si>
     <t>EmpCode</t>
   </si>
@@ -52,16 +52,97 @@
     <t>Salary Period</t>
   </si>
   <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>Enter Name</t>
-  </si>
-  <si>
-    <t>Development</t>
+    <t>DGT000056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md. Foysal Hossain Sohag  </t>
+  </si>
+  <si>
+    <t>Senior Executive</t>
+  </si>
+  <si>
+    <t>Internal Audit</t>
+  </si>
+  <si>
+    <t>Dekko Isho</t>
   </si>
   <si>
     <t>Aug-25</t>
+  </si>
+  <si>
+    <t>DGT000064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md. Anisur Rahman  </t>
+  </si>
+  <si>
+    <t>Assistant Manager</t>
+  </si>
+  <si>
+    <t>Procurement</t>
+  </si>
+  <si>
+    <t>DGT000263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uthpal Saha  </t>
+  </si>
+  <si>
+    <t>Sr. Manager</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>EMP-000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md. Golam Kibrea  </t>
+  </si>
+  <si>
+    <t>Deputy Manager</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>EMP-000007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesbauddin Chowdhury  </t>
+  </si>
+  <si>
+    <t>Accounts &amp; Finance</t>
+  </si>
+  <si>
+    <t>EMP-000028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Asadul Islam  </t>
+  </si>
+  <si>
+    <t>EMP-000030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supan Saha  </t>
+  </si>
+  <si>
+    <t>EMP-000085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md. Hafizur Rahman  </t>
+  </si>
+  <si>
+    <t>Jr. Executive</t>
+  </si>
+  <si>
+    <t>EMP-000347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahmuduzzaman  </t>
+  </si>
+  <si>
+    <t>Merchandising</t>
   </si>
 </sst>
 </file>
@@ -397,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -453,23 +534,336 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="J2">
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>200</v>
+      </c>
+      <c r="J3">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>200</v>
+      </c>
+      <c r="J4">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>200</v>
+      </c>
+      <c r="J5">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>200</v>
+      </c>
+      <c r="J6">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>200</v>
+      </c>
+      <c r="J7">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>200</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>200</v>
+      </c>
+      <c r="J9">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>200</v>
+      </c>
+      <c r="J10">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
